--- a/01 - Maquette CATIA/EL_Electrical/Gabarits/EL_A2100 (Accumulator Assy)/Quantités Gabarit Batterie.xlsx
+++ b/01 - Maquette CATIA/EL_Electrical/Gabarits/EL_A2100 (Accumulator Assy)/Quantités Gabarit Batterie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Desktop\Centrale Lyon\PE EPSA\GIT\ELIZ-2022\01 - Maquette CATIA\EL_Electrical\Gabarits\EL_A2100 (Accumulator Assy)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Desktop\Centrale Lyon\EPSA\NewGit\ELIZ-2022\01 - Maquette CATIA\EL_Electrical\Gabarits\EL_A2100 (Accumulator Assy)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D79AF6C-0B39-4DD7-ADC6-F762F6489F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C0F2C5-AE0D-4614-94CF-F7E47CAD42C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3749BA67-AEB2-4070-BEDE-C85099DFC859}"/>
   </bookViews>
@@ -84,10 +84,10 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre mini si manque de bois </t>
-  </si>
-  <si>
     <t>Pièce</t>
+  </si>
+  <si>
+    <t>14 idéalement, en faire au moins 6 si pas assez de plaques</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -126,15 +126,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -145,31 +154,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -180,56 +167,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -240,80 +177,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -344,6 +236,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -358,12 +266,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -380,12 +290,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{488A9D20-9DB1-4318-ACCC-8DBDD127A001}" name="Tableau1" displayName="Tableau1" ref="A1:C16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:C16" xr:uid="{488A9D20-9DB1-4318-ACCC-8DBDD127A001}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{15222DC4-3F69-49C1-A9C2-0B0A0C46FA0E}" name="Pièce" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{79A6AD86-8235-46E3-9C9F-898C14B8FEB7}" name="Nombre" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FDECD00C-4AC8-4B21-A8F3-6B8023E0722E}" name="Nombre mini si manque de bois " dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{488A9D20-9DB1-4318-ACCC-8DBDD127A001}" name="Tableau1" displayName="Tableau1" ref="A1:B16" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:B16" xr:uid="{488A9D20-9DB1-4318-ACCC-8DBDD127A001}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{15222DC4-3F69-49C1-A9C2-0B0A0C46FA0E}" name="Pièce" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{79A6AD86-8235-46E3-9C9F-898C14B8FEB7}" name="Nombre" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -688,190 +597,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82E78B0-03E3-44EE-A8C5-C48B3D56F569}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="40.109375" customWidth="1"/>
+    <col min="2" max="2" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
       </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="5">
         <v>1</v>
       </c>
     </row>
